--- a/data/outputs/management_altmetric/52.xlsx
+++ b/data/outputs/management_altmetric/52.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE53"/>
+  <dimension ref="A1:CF53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1033,6 +1038,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1284,6 +1292,9 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1527,6 +1538,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1768,6 +1782,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2009,6 +2026,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2264,6 +2284,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2509,6 +2532,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2758,6 +2784,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3011,6 +3040,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3254,6 +3286,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3493,6 +3528,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3736,6 +3774,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3981,6 +4022,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4230,6 +4274,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4481,6 +4528,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4728,6 +4778,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>7.508</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4977,6 +5030,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5222,6 +5278,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5468,6 +5527,9 @@
       </c>
       <c r="CE20" t="n">
         <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -5706,6 +5768,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5947,6 +6012,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6176,6 +6244,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6438,6 +6509,9 @@
       </c>
       <c r="CE24" t="n">
         <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="25">
@@ -6680,6 +6754,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6925,6 +7002,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7170,6 +7250,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7423,6 +7506,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7676,6 +7762,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7921,6 +8010,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8171,6 +8263,9 @@
       </c>
       <c r="CE31" t="n">
         <v>0</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="32">
@@ -8413,6 +8508,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8652,6 +8750,9 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8885,6 +8986,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9118,6 +9222,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9365,6 +9472,9 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9606,6 +9716,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9837,6 +9950,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10078,6 +10194,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10321,6 +10440,9 @@
         <v>0</v>
       </c>
       <c r="CE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10564,6 +10686,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10811,6 +10936,9 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11056,6 +11184,9 @@
       <c r="CE43" t="n">
         <v>1</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11303,6 +11434,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11546,6 +11680,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11787,6 +11924,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12033,6 +12173,9 @@
       </c>
       <c r="CE47" t="n">
         <v>0</v>
+      </c>
+      <c r="CF47" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="48">
@@ -12259,6 +12402,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12486,6 +12632,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12715,6 +12864,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12944,6 +13096,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13187,6 +13342,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13444,6 +13602,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
